--- a/我的晋升/产品对比.xlsx
+++ b/我的晋升/产品对比.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingxiang.wang\Desktop\晋升\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aliPromotePPT\我的晋升\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,61 +24,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Silverlight</t>
+  </si>
+  <si>
+    <t>Universal</t>
+  </si>
+  <si>
+    <t>以前，只针对phone</t>
+  </si>
+  <si>
+    <t>现在，各个终端适配特性不同，如鼠标，定位模块等</t>
+  </si>
+  <si>
+    <t>以前，代码是Android风格</t>
+  </si>
+  <si>
+    <t>现在，我将其改为c#风格，并且与微软的SDK API保持一致</t>
+  </si>
+  <si>
+    <t>以前，架构逻辑不够清晰</t>
+  </si>
+  <si>
+    <t>现在，更改架构的逻辑，明确分工</t>
+  </si>
+  <si>
+    <t>以前，性能问题</t>
+  </si>
+  <si>
+    <t>现在，增强性能</t>
+  </si>
+  <si>
+    <t>以前，使用GoogleProtocolBuffer做搜索库的数据传输</t>
+  </si>
+  <si>
+    <t>现在，为了跨平台性改写成json解析</t>
+  </si>
+  <si>
+    <t>以前，部署特别困难</t>
+  </si>
+  <si>
+    <r>
+      <t>现在，我学习了extension sdk的打包方式，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里面涉及一些Powershell script进行自动化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，可以做到一键安装</t>
+    </r>
+  </si>
+  <si>
+    <t>以前,API并不友好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Universal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以前，只针对phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以前，代码是Android风格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以前，架构逻辑不够清晰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以前，性能问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以前，使用GoogleProtocolBuffer做搜索库的数据传输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在，各个终端适配特性不同，如鼠标，定位模块等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在，我将其改为c#风格，并且与微软的SDK API保持一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在，更改架构的逻辑，明确分工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在，增强性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在，为了跨平台性改写成json解析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以前，部署特别困难</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在，我学习了extension sdk的打包方式，里面涉及一些script，可以做到一键安装</t>
+    <t>现在，更新API的使用方法，提升开发者用户体验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,19 +118,65 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9ECF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -125,9 +187,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,72 +477,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:E7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E7"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="66.75" customWidth="1"/>
+    <col min="2" max="2" width="83.5" customWidth="1"/>
     <col min="4" max="4" width="50.375" customWidth="1"/>
     <col min="5" max="5" width="79.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D1" t="s">
+    <row r="1" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D2" t="s">
+    <row r="2" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="5" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="6" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D7" t="s">
+    <row r="7" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
